--- a/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="261">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -820,6 +820,12 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>createuser</t>
+  </si>
+  <si>
+    <t>创建者id</t>
+  </si>
+  <si>
     <t>taskinfo（任务信息表）</t>
   </si>
   <si>
@@ -847,9 +853,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -880,6 +886,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,30 +902,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,6 +917,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,20 +954,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -971,14 +961,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,14 +1015,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1017,10 +1023,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1045,13 +1051,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,43 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1159,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,67 +1213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,6 +1276,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1285,11 +1309,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,31 +1328,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,17 +1348,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,10 +1370,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,16 +1382,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1394,115 +1400,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2102,10 +2108,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2355,6 +2361,23 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2388,7 +2411,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2444,7 +2467,7 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2458,10 +2481,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2480,7 +2503,7 @@
         <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2533,7 +2556,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2545,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G9" s="2"/>
     </row>

--- a/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="263">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -189,13 +189,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v0.3修改</t>
     </r>
     <r>
@@ -206,7 +199,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：大小扩大到1024，对应device的companyname</t>
+      <t>：大小扩大到1024，对应device的companyid</t>
     </r>
   </si>
   <si>
@@ -538,6 +531,12 @@
     <t>人脸库id</t>
   </si>
   <si>
+    <t>companyid</t>
+  </si>
+  <si>
+    <t>公司id</t>
+  </si>
+  <si>
     <t>devicesw（设备软件信息表）</t>
   </si>
   <si>
@@ -852,10 +851,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -886,49 +885,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -954,30 +910,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,6 +926,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,9 +962,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,6 +981,51 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1051,133 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1074,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,31 +1194,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,20 +1266,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,7 +1277,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,6 +1293,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,38 +1356,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1370,10 +1369,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1382,133 +1381,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,10 +2107,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2128,7 +2127,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2184,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2198,10 +2197,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2215,10 +2214,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2230,15 +2229,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -2250,15 +2249,15 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2274,10 +2273,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2327,10 +2326,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -2364,10 +2363,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -2378,6 +2377,44 @@
       <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2411,7 +2448,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2467,7 +2504,7 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2481,10 +2518,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2500,10 +2537,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2556,7 +2593,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2568,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -2577,7 +2614,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -2623,7 +2660,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2969,10 +3006,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3778,6 +3815,25 @@
       <c r="E41" s="5" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3811,7 +3867,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3867,7 +3923,7 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -3970,7 +4026,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3982,7 +4038,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -4051,7 +4107,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4138,10 +4194,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -4157,10 +4213,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -4174,10 +4230,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -4191,10 +4247,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4206,7 +4262,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -4245,10 +4301,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -4260,7 +4316,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -4282,10 +4338,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -4297,15 +4353,15 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -4317,15 +4373,15 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -4337,15 +4393,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -4359,10 +4415,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -4374,15 +4430,15 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -4394,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4414,7 +4470,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -4450,7 +4506,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4503,10 +4559,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4520,10 +4576,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4537,10 +4593,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4559,7 +4615,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -4573,10 +4629,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -4592,10 +4648,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -4658,7 +4714,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4711,10 +4767,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4728,10 +4784,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4748,7 +4804,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4760,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -4803,7 +4859,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4815,7 +4871,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4824,7 +4880,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4887,7 +4943,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4940,10 +4996,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4964,7 +5020,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4976,7 +5032,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
@@ -4984,10 +5040,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4999,15 +5055,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -5019,7 +5075,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -5116,10 +5172,10 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -5132,7 +5188,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5147,10 +5203,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -5167,7 +5223,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5220,10 +5276,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -5237,10 +5293,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -5254,10 +5310,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -5269,16 +5325,16 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -5290,16 +5346,16 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -5315,10 +5371,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -5334,10 +5390,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -5349,15 +5405,15 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -5371,10 +5427,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -5405,6 +5461,25 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12075" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="25545" windowHeight="12075" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="265">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -189,6 +189,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v0.3修改</t>
     </r>
     <r>
@@ -576,207 +583,210 @@
     <t>下载状态</t>
   </si>
   <si>
+    <t>修改为userid</t>
+  </si>
+  <si>
+    <t>uploadsoftwarename</t>
+  </si>
+  <si>
+    <t>上传文件名</t>
+  </si>
+  <si>
+    <t>平台唯一号</t>
+  </si>
+  <si>
+    <t>filetimestamp</t>
+  </si>
+  <si>
+    <t>软件唯一号</t>
+  </si>
+  <si>
+    <t>平台用</t>
+  </si>
+  <si>
+    <t>softwaretype</t>
+  </si>
+  <si>
+    <t>软件类型</t>
+  </si>
+  <si>
+    <t>1-应用软件；2-系统软件</t>
+  </si>
+  <si>
+    <t>signflag</t>
+  </si>
+  <si>
+    <t>签名标志</t>
+  </si>
+  <si>
+    <t>true-带签名；false-不带签名</t>
+  </si>
+  <si>
+    <t>qrcode</t>
+  </si>
+  <si>
+    <t>二维码</t>
+  </si>
+  <si>
+    <t>qrpath</t>
+  </si>
+  <si>
+    <t>二维码路径</t>
+  </si>
+  <si>
+    <t>相对路径</t>
+  </si>
+  <si>
+    <t>fitmodel</t>
+  </si>
+  <si>
+    <t>适用设备类型</t>
+  </si>
+  <si>
+    <t>v0.2新增</t>
+  </si>
+  <si>
+    <t>syslog（系统日志表）</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>操作说明</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>loginfo</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>userip</t>
+  </si>
+  <si>
+    <t>操作ip</t>
+  </si>
+  <si>
+    <t>offlinemsg（离线消息表）</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>消息主题</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>消息对象EMQID</t>
+  </si>
+  <si>
+    <t>用于监控对应设备上线</t>
+  </si>
+  <si>
+    <t>消息状态</t>
+  </si>
+  <si>
+    <t>0,1,2（0-未发送；1-已发送；2-取消发送）</t>
+  </si>
+  <si>
+    <t>重发次数</t>
+  </si>
+  <si>
+    <t>vrdevice（虚拟设备信息表）</t>
+  </si>
+  <si>
+    <t>vrdeviceid</t>
+  </si>
+  <si>
+    <t>虚拟设备ID</t>
+  </si>
+  <si>
+    <t>虚拟设备名称</t>
+  </si>
+  <si>
+    <t>设备的名称</t>
+  </si>
+  <si>
+    <t>虚拟设备类型</t>
+  </si>
+  <si>
+    <t>0,1（0-服务；1-EMQ设备）</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>虚拟设备信息</t>
+  </si>
+  <si>
+    <t>一般为json数据串</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>协议版本</t>
+  </si>
+  <si>
+    <t>V0.8</t>
+  </si>
+  <si>
+    <t>fileinfo（文件信息表）</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>文件名称</t>
+  </si>
+  <si>
+    <t>filesize</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>0-未知；1-图片；2-视频；</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>文件相对路径</t>
+  </si>
+  <si>
+    <t>uploadname</t>
+  </si>
+  <si>
     <t>可用于监控下载进程</t>
   </si>
   <si>
-    <t>uploadsoftwarename</t>
-  </si>
-  <si>
-    <t>上传文件名</t>
-  </si>
-  <si>
-    <t>平台唯一号</t>
-  </si>
-  <si>
-    <t>filetimestamp</t>
-  </si>
-  <si>
-    <t>软件唯一号</t>
-  </si>
-  <si>
-    <t>平台用</t>
-  </si>
-  <si>
-    <t>softwaretype</t>
-  </si>
-  <si>
-    <t>软件类型</t>
-  </si>
-  <si>
-    <t>1-应用软件；2-系统软件</t>
-  </si>
-  <si>
-    <t>signflag</t>
-  </si>
-  <si>
-    <t>签名标志</t>
-  </si>
-  <si>
-    <t>true-带签名；false-不带签名</t>
-  </si>
-  <si>
-    <t>qrcode</t>
-  </si>
-  <si>
-    <t>二维码</t>
-  </si>
-  <si>
-    <t>qrpath</t>
-  </si>
-  <si>
-    <t>二维码路径</t>
-  </si>
-  <si>
-    <t>相对路径</t>
-  </si>
-  <si>
-    <t>fitmodel</t>
-  </si>
-  <si>
-    <t>适用设备类型</t>
-  </si>
-  <si>
-    <t>v0.2新增</t>
-  </si>
-  <si>
-    <t>syslog（系统日志表）</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>操作说明</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>loginfo</t>
-  </si>
-  <si>
-    <t>操作日志</t>
-  </si>
-  <si>
-    <t>操作时间</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>userip</t>
-  </si>
-  <si>
-    <t>操作ip</t>
-  </si>
-  <si>
-    <t>offlinemsg（离线消息表）</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>消息主题</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>消息内容</t>
-  </si>
-  <si>
-    <t>消息对象EMQID</t>
-  </si>
-  <si>
-    <t>用于监控对应设备上线</t>
-  </si>
-  <si>
-    <t>消息状态</t>
-  </si>
-  <si>
-    <t>0,1,2（0-未发送；1-已发送；2-取消发送）</t>
-  </si>
-  <si>
-    <t>重发次数</t>
-  </si>
-  <si>
-    <t>vrdevice（虚拟设备信息表）</t>
-  </si>
-  <si>
-    <t>vrdeviceid</t>
-  </si>
-  <si>
-    <t>虚拟设备ID</t>
-  </si>
-  <si>
-    <t>虚拟设备名称</t>
-  </si>
-  <si>
-    <t>设备的名称</t>
-  </si>
-  <si>
-    <t>虚拟设备类型</t>
-  </si>
-  <si>
-    <t>0,1（0-服务；1-EMQ设备）</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>虚拟设备信息</t>
-  </si>
-  <si>
-    <t>一般为json数据串</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>协议版本</t>
-  </si>
-  <si>
-    <t>V0.8</t>
-  </si>
-  <si>
-    <t>fileinfo（文件信息表）</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>文件名称</t>
-  </si>
-  <si>
-    <t>filesize</t>
-  </si>
-  <si>
-    <t>filetype</t>
-  </si>
-  <si>
-    <t>文件类型</t>
-  </si>
-  <si>
-    <t>0-未知；1-图片；2-视频；</t>
-  </si>
-  <si>
-    <t>filepath</t>
-  </si>
-  <si>
-    <t>文件路径</t>
-  </si>
-  <si>
-    <t>文件相对路径</t>
-  </si>
-  <si>
-    <t>uploadname</t>
-  </si>
-  <si>
     <t>md5size</t>
   </si>
   <si>
@@ -790,6 +800,9 @@
   </si>
   <si>
     <t>节目单类型</t>
+  </si>
+  <si>
+    <t>0-临时；1-长期；</t>
   </si>
   <si>
     <t>fileids</t>
@@ -851,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -885,6 +898,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -893,24 +950,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,53 +990,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,13 +1012,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1016,14 +1036,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,19 +1063,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,31 +1129,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1153,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,7 +1183,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,79 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,31 +1281,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,16 +1313,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,6 +1342,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1369,10 +1382,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,133 +1394,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2109,8 +2122,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2127,7 +2140,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2183,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2195,12 +2208,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2211,13 +2224,16 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2229,12 +2245,12 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>170</v>
@@ -2249,15 +2265,15 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2273,10 +2289,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2363,10 +2379,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -2448,7 +2464,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2504,7 +2520,7 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2518,10 +2534,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2540,7 +2556,7 @@
         <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2593,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2605,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3008,8 +3024,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD18"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -4089,8 +4105,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D35" sqref="B13 D35"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -4261,7 +4277,7 @@
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5206,7 +5222,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -5405,15 +5421,15 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>

--- a/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12075" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="25545" windowHeight="12075" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -864,9 +864,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -927,42 +927,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,14 +944,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,26 +958,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,9 +997,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1063,25 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,85 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,13 +1099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1129,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,19 +1219,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,6 +1286,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1313,36 +1361,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1356,24 +1374,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1382,145 +1382,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3024,8 +3024,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3725,7 +3725,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>15</v>
@@ -4105,7 +4105,7 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12075" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="25545" windowHeight="12075" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -864,9 +864,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -906,6 +906,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -920,8 +927,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,6 +990,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -944,15 +1006,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,78 +1036,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1063,7 +1063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,19 +1099,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,121 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1159,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1183,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,6 +1280,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1288,18 +1297,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,16 +1337,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,32 +1374,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1382,10 +1382,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1394,133 +1394,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2122,8 +2122,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2369,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>15</v>
@@ -2447,7 +2447,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3024,8 +3024,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -5222,7 +5222,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
